--- a/data/Alberto_2013_papers_organized_Alina.xlsx
+++ b/data/Alberto_2013_papers_organized_Alina.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alina\Documents\git\localadaptclim\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222301FA-332C-44DF-935B-266736293319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE196408-9FC3-43E1-88D1-020E2ACC78F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{F4329186-0A25-4F33-BBCD-636E0F190F92}"/>
+    <workbookView xWindow="7800" yWindow="3588" windowWidth="7500" windowHeight="8976" xr2:uid="{F4329186-0A25-4F33-BBCD-636E0F190F92}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
-    <sheet name="Deans Harvey 1996" sheetId="4" r:id="rId2"/>
-    <sheet name="Farmer 1993" sheetId="5" r:id="rId3"/>
-    <sheet name="Hannerz et al. 1999" sheetId="3" r:id="rId4"/>
-    <sheet name="Sogaard et al. 2008" sheetId="2" r:id="rId5"/>
+    <sheet name="EG PICEAB Sogaard et al. 2008" sheetId="2" r:id="rId2"/>
+    <sheet name="EG PICEPE Deans Harvey 1996" sheetId="4" r:id="rId3"/>
+    <sheet name="NA POPUBA Farmer 1993" sheetId="5" r:id="rId4"/>
+    <sheet name="NG TSUGHE Hannerz et al. 1999" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="143">
   <si>
     <t xml:space="preserve">Out of the 18 papers Alberto 2013 looked at regarding spring events, 8 of them are concerning the latitude. </t>
   </si>
@@ -100,18 +101,9 @@
     <t>number of families from whith the pouplation means of phenotypic traits are derived</t>
   </si>
   <si>
-    <t>n_individuals</t>
-  </si>
-  <si>
-    <t>number of individuals (total, i.e. across all families) from which the population means of phenotypic traits are derived</t>
-  </si>
-  <si>
     <t>height</t>
   </si>
   <si>
-    <t>population mean height (units vary; see original publications for units)</t>
-  </si>
-  <si>
     <t>spring_event</t>
   </si>
   <si>
@@ -452,13 +444,37 @@
   </si>
   <si>
     <t>scrape from fig 5</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>EG</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>European Angiosperm</t>
+  </si>
+  <si>
+    <t>European Gynosperm</t>
+  </si>
+  <si>
+    <t>North American Angiosperm</t>
+  </si>
+  <si>
+    <t>North American Gynosperm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,6 +493,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -515,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -523,6 +547,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -837,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60EE6B0-1506-487B-997C-EE45FE65341A}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G3"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -886,25 +911,25 @@
     </row>
     <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
         <v>41</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A12" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A13" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -912,7 +937,7 @@
     </row>
     <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -920,7 +945,7 @@
     </row>
     <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A16" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -981,65 +1006,338 @@
       <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A21" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76EDD827-CAF1-4495-AAA0-DD564431A8AE}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="14.578125" customWidth="1"/>
+    <col min="2" max="2" width="39.7890625" customWidth="1"/>
+    <col min="3" max="3" width="8.83984375" customWidth="1"/>
+    <col min="5" max="5" width="10.68359375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D30" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B8EF70-A5BA-4057-AB45-8D5AA78D1A0B}">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:D17"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1053,29 +1351,29 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.6">
@@ -1086,13 +1384,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>12</v>
@@ -1107,16 +1405,16 @@
         <v>18</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1124,7 +1422,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980C78BD-035D-468D-A701-BF9C832F88A9}">
   <dimension ref="A1:J24"/>
   <sheetViews>
@@ -1146,32 +1444,32 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
@@ -1182,13 +1480,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>12</v>
@@ -1197,27 +1495,27 @@
         <v>14</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>15</v>
@@ -1231,16 +1529,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H10">
         <v>16</v>
@@ -1254,16 +1552,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H11">
         <v>15</v>
@@ -1277,16 +1575,16 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H12">
         <v>13</v>
@@ -1300,27 +1598,27 @@
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1328,7 +1626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F590997-770F-4B8A-B26E-E7A24107B1AF}">
   <dimension ref="A1:N12"/>
   <sheetViews>
@@ -1345,39 +1643,39 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="J6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.6">
@@ -1388,19 +1686,19 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>12</v>
@@ -1409,7 +1707,7 @@
         <v>14</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -1418,22 +1716,22 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E9">
         <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H9">
         <v>100</v>
@@ -1444,22 +1742,22 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E10">
         <v>75</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H10">
         <v>305</v>
@@ -1470,22 +1768,22 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E11">
         <v>75</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H11">
         <v>120</v>
@@ -1496,22 +1794,22 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E12">
         <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H12">
         <v>30</v>
@@ -1525,278 +1823,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76EDD827-CAF1-4495-AAA0-DD564431A8AE}">
-  <dimension ref="A1:L30"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C575E171-0590-4D4C-B384-7617C88873A4}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="14.578125" customWidth="1"/>
-    <col min="2" max="2" width="39.7890625" customWidth="1"/>
-    <col min="3" max="3" width="8.83984375" customWidth="1"/>
-    <col min="5" max="5" width="10.68359375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E9" t="s">
-        <v>134</v>
-      </c>
-      <c r="G9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" t="s">
-        <v>124</v>
-      </c>
-      <c r="E13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" t="s">
-        <v>132</v>
-      </c>
-      <c r="E16">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D26" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D27" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D30" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>